--- a/QA/testcases/FAF/Patient/F_Patient_Registration_Validation.xlsx
+++ b/QA/testcases/FAF/Patient/F_Patient_Registration_Validation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
   <si>
     <t>Step No</t>
   </si>
@@ -162,7 +162,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>DONNA</t>
+    <t>Heart Valve</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -189,7 +189,25 @@
     <t>House income entered</t>
   </si>
   <si>
-    <t>FAF_BREAST_CANCER</t>
+    <t>APP_PRI_INSURANCE</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>Type Valve disease</t>
+  </si>
+  <si>
+    <t>Typed</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Select Valve disease</t>
+  </si>
+  <si>
+    <t>Selected</t>
   </si>
   <si>
     <t>FAF_ACTIVE_TREATMENT</t>
@@ -198,10 +216,16 @@
     <t>FAF_LAST6_MONTH</t>
   </si>
   <si>
-    <t>FAF-STAGE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>FAF_HE_PATIENT_INTEND</t>
+    <t>FAF_NEXT60DAYS</t>
+  </si>
+  <si>
+    <t>FAF_FINANCIAL_BURDEN</t>
+  </si>
+  <si>
+    <t>FAF_FINANCIAL_AID</t>
+  </si>
+  <si>
+    <t>TERRITORY_LEBEL_YES</t>
   </si>
   <si>
     <t>Click Yes</t>
@@ -210,9 +234,6 @@
     <t>Clicked Yes</t>
   </si>
   <si>
-    <t>TERRITORY_LEBEL_YES</t>
-  </si>
-  <si>
     <t>REG_ZIP_CODE</t>
   </si>
   <si>
@@ -541,9 +562,6 @@
   </si>
   <si>
     <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>Enter</t>
   </si>
   <si>
     <t>KeyboardArrowUp</t>
@@ -664,7 +682,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,10 +718,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF353535"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -713,23 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,52 +757,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,23 +772,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,6 +820,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,7 +875,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +917,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,19 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +1007,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,55 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1118,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1124,7 +1160,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,24 +1182,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,21 +1199,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1208,10 +1220,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1220,122 +1232,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1347,7 +1359,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1466,7 +1477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table15" displayName="Table15" ref="A1:H95" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table15" displayName="Table15" ref="A1:H99" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Step No"/>
     <tableColumn id="2" name="Action"/>
@@ -1757,10 +1768,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2085,63 +2096,71 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:7">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2151,17 +2170,11 @@
       <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="D21" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2171,40 +2184,25 @@
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="D22" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10001</v>
-      </c>
-      <c r="F23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2214,113 +2212,116 @@
       <c r="C24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="D24" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>65</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10001</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:7">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2328,30 +2329,33 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2359,985 +2363,958 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="B41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="16">
-        <v>1</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="B44" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="B45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="B46" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="4">
-        <v>8</v>
-      </c>
+      <c r="B47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="B48" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="13">
-        <v>4</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="B49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="B50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="19"/>
+      <c r="F50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="13">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="B51" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="B52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="B53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="12">
+        <v>4</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>12</v>
+      <c r="B54" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="13">
-        <v>101</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="B55" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="16">
-        <v>24</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H56" s="16"/>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="B57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>100</v>
+      <c r="D57" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="H57" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="B58" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16">
-        <v>1</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
+      <c r="B59" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="12">
+        <v>101</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="16" t="s">
+      <c r="B60" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" s="4">
-        <v>8</v>
-      </c>
+      <c r="D60" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="15">
+        <v>24</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="B61" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>38</v>
+      <c r="D61" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="H61" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="B62" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>41</v>
+      <c r="D62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16">
-        <v>4</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15">
+        <v>1</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="B64" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16">
-        <v>1</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
+      <c r="B65" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>10</v>
+      <c r="B66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>16</v>
+      <c r="B67" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15">
+        <v>4</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>20</v>
+      <c r="B68" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="F69" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>26</v>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16">
-        <v>1</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
+      <c r="B71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="B72" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="B73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="F73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="4">
-        <v>8</v>
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="B75" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4">
-        <v>4</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="B76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="B77" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="4">
         <v>8</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="F78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="B79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4">
+        <v>4</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="4">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E81" s="4">
-        <v>101</v>
-      </c>
-      <c r="F81" s="4" t="s">
+      <c r="B81" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>94</v>
+      <c r="C81" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" s="4">
-        <v>24</v>
-      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="4"/>
       <c r="F82" s="4" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3345,166 +3322,183 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="H83" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="5">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="H84" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="E85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="E86" s="4">
+        <v>24</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="H87" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="5">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="5">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4">
-        <v>10</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>107</v>
+        <v>12</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3512,79 +3506,157 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>108</v>
+      <c r="D92" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="H92" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="5">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>110</v>
+        <v>25</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="B94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4">
+        <v>10</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E99" s="4">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>DataList!$A$2:$A$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39 B49 C49 C52 B57 C57 B63 C63 C66 B76 C76 B77 C77 C78 B83 C83 B86 C86 B87 C87 B90 C90 B94 C94 B95 C95 B40:B48 B50:B51 B53:B54 B55:B56 B58:B59 B60:B62 B64:B65 B67:B75 B79:B80 B81:B82 B84:B85 B88:B89 B91:B93 C40:C48 C50:C51 C53:C54 C55:C56 C58:C59 C60:C62 C64:C65 C67:C75 C79:C80 C81:C82 C84:C85 C88:C89 C91:C93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 C20 B13:B16 B17:B19 B21:B25 B26:B27 C13:C16 C17:C19 C21:C25 C26:C27">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 B53 C53 C56 B61 C61 B67 C67 C70 B80 C80 B81 C81 C82 B87 C87 B90 C90 B91 C91 B94 C94 B98 C98 B99 C99 B44:B52 B54:B55 B57:B58 B59:B60 B62:B63 B64:B66 B68:B69 B71:B79 B83:B84 B85:B86 B88:B89 B92:B93 B95:B97 C44:C52 C54:C55 C57:C58 C59:C60 C62:C63 C64:C66 C68:C69 C71:C79 C83:C84 C85:C86 C88:C89 C92:C93 C95:C97">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B16 B17:B21 B22:B38 C3:C16 C17:C21 C22:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B12 B28:B42 C3:C12 C28:C42">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3621,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3629,20 +3701,20 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3653,20 +3725,20 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -3674,47 +3746,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -3724,12 +3796,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -3739,55 +3811,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -3797,349 +3869,349 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="3:3">
@@ -4149,7 +4221,7 @@
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
